--- a/student-service-master/doc/log/log_201608040105_wanghai.xlsx
+++ b/student-service-master/doc/log/log_201608040105_wanghai.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACFBFBD4-70F7-4F0D-A49C-C6EDEA85861A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12036" windowHeight="2700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12036" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,13 +116,189 @@
   </si>
   <si>
     <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16：00-19:00</t>
+  </si>
+  <si>
+    <t>通过学习map，实体类转换json</t>
+  </si>
+  <si>
+    <t>学习完成，</t>
+  </si>
+  <si>
+    <t>未实行，学习使用fastjson工具</t>
+  </si>
+  <si>
+    <t>16：:30-20:00</t>
+  </si>
+  <si>
+    <t>大文件拆分</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>解析</t>
+  </si>
+  <si>
+    <t>19:00-22:00</t>
+  </si>
+  <si>
+    <t>json文件的解析</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>16:30-21:00</t>
+  </si>
+  <si>
+    <t>json文件的解析，插数据库</t>
+  </si>
+  <si>
+    <t xml:space="preserve">报错Failed to load ApplicationContext </t>
+  </si>
+  <si>
+    <t>13:30-18:30</t>
+  </si>
+  <si>
+    <t>调bug</t>
+  </si>
+  <si>
+    <t>13：00-21:00</t>
+  </si>
+  <si>
+    <t>学习hibernate的几种注解</t>
+  </si>
+  <si>
+    <t>16:00-20-：00</t>
+  </si>
+  <si>
+    <t>修改attributesManager</t>
+  </si>
+  <si>
+    <t>学习springMVC</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>写一个webdemo</t>
+  </si>
+  <si>
+    <t>继续学习springmvc</t>
+  </si>
+  <si>
+    <t>解决webdemo出现乱码问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 配置 basecontroller和coursecontroller</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>完成，但是@Autowired出现问题</t>
+  </si>
+  <si>
+    <t>解决注入问题</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>解决@Autowired注入失败</t>
+  </si>
+  <si>
+    <t>学习extjs</t>
+  </si>
+  <si>
+    <t>9:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分功能写完但是服务器的运行有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑通服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:45:-21:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发布遇到问题,后面解决了该问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把js视图显示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图显示成功,但数据没显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-14:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改basecontroller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据显示成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写goods的相关js代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加goods的madel和store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改goods的js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习extjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改goods的js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,11 +621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -577,6 +752,288 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43260</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43263</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -585,7 +1042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
